--- a/artfynd/A 60716-2021.xlsx
+++ b/artfynd/A 60716-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97383944</v>
+        <v>97383937</v>
       </c>
       <c r="B2" t="n">
-        <v>81236</v>
+        <v>77177</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1312</v>
+        <v>353</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>371223.8177090761</v>
+        <v>371135.0265551978</v>
       </c>
       <c r="R2" t="n">
-        <v>6744653.964307282</v>
+        <v>6744809.02867246</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97383905</v>
+        <v>97383912</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>371104.6060876616</v>
+        <v>371300.3829165885</v>
       </c>
       <c r="R3" t="n">
-        <v>6744765.694054871</v>
+        <v>6744769.855884247</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97383937</v>
+        <v>97383944</v>
       </c>
       <c r="B4" t="n">
-        <v>77177</v>
+        <v>81236</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>371135.0265551978</v>
+        <v>371223.8177090761</v>
       </c>
       <c r="R4" t="n">
-        <v>6744809.02867246</v>
+        <v>6744653.964307282</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97383922</v>
+        <v>97383905</v>
       </c>
       <c r="B5" t="n">
-        <v>78527</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>229497</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>371221.313728622</v>
+        <v>371104.6060876616</v>
       </c>
       <c r="R5" t="n">
-        <v>6744625.24492522</v>
+        <v>6744765.694054871</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97383934</v>
+        <v>97383922</v>
       </c>
       <c r="B6" t="n">
-        <v>77595</v>
+        <v>78527</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6450</v>
+        <v>229497</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>371002.8556096497</v>
+        <v>371221.313728622</v>
       </c>
       <c r="R6" t="n">
-        <v>6744724.449491068</v>
+        <v>6744625.24492522</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97383928</v>
+        <v>97383934</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>77595</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6450</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>371053.1167658683</v>
+        <v>371002.8556096497</v>
       </c>
       <c r="R7" t="n">
-        <v>6744734.839612942</v>
+        <v>6744724.449491068</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97383925</v>
+        <v>97383928</v>
       </c>
       <c r="B8" t="n">
         <v>78569</v>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>370939.4954976452</v>
+        <v>371053.1167658683</v>
       </c>
       <c r="R8" t="n">
-        <v>6744676.446748036</v>
+        <v>6744734.839612942</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97383910</v>
+        <v>97383925</v>
       </c>
       <c r="B9" t="n">
-        <v>78570</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>370947.5950156241</v>
+        <v>370939.4954976452</v>
       </c>
       <c r="R9" t="n">
-        <v>6744602.908073967</v>
+        <v>6744676.446748036</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97383930</v>
+        <v>97383910</v>
       </c>
       <c r="B10" t="n">
-        <v>73631</v>
+        <v>78570</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6426</v>
+        <v>2081</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>371174.3428833798</v>
+        <v>370947.5950156241</v>
       </c>
       <c r="R10" t="n">
-        <v>6744597.642494702</v>
+        <v>6744602.908073967</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>97383908</v>
+        <v>97383930</v>
       </c>
       <c r="B11" t="n">
-        <v>78596</v>
+        <v>73631</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>6426</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>370947.5950156241</v>
+        <v>371174.3428833798</v>
       </c>
       <c r="R11" t="n">
-        <v>6744602.908073967</v>
+        <v>6744597.642494702</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>97383921</v>
+        <v>97383908</v>
       </c>
       <c r="B12" t="n">
-        <v>78569</v>
+        <v>78596</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>371001.0552476444</v>
+        <v>370947.5950156241</v>
       </c>
       <c r="R12" t="n">
-        <v>6744715.237031102</v>
+        <v>6744602.908073967</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>97383933</v>
+        <v>97383921</v>
       </c>
       <c r="B13" t="n">
-        <v>78527</v>
+        <v>78569</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>371074.0237595745</v>
+        <v>371001.0552476444</v>
       </c>
       <c r="R13" t="n">
-        <v>6744569.038105329</v>
+        <v>6744715.237031102</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>97383909</v>
+        <v>97383933</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>78527</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>370947.5950156241</v>
+        <v>371074.0237595745</v>
       </c>
       <c r="R14" t="n">
-        <v>6744602.908073967</v>
+        <v>6744569.038105329</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>97383935</v>
+        <v>97383909</v>
       </c>
       <c r="B15" t="n">
         <v>78569</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>371082.9162868222</v>
+        <v>370947.5950156241</v>
       </c>
       <c r="R15" t="n">
-        <v>6744747.43465819</v>
+        <v>6744602.908073967</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>97383912</v>
+        <v>97383935</v>
       </c>
       <c r="B16" t="n">
-        <v>81236</v>
+        <v>78569</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2264,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>371300.3829165885</v>
+        <v>371082.9162868222</v>
       </c>
       <c r="R16" t="n">
-        <v>6744769.855884247</v>
+        <v>6744747.43465819</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>

--- a/artfynd/A 60716-2021.xlsx
+++ b/artfynd/A 60716-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97383937</v>
+        <v>97383944</v>
       </c>
       <c r="B2" t="n">
-        <v>77177</v>
+        <v>81236</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>353</v>
+        <v>1312</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>371135.0265551978</v>
+        <v>371223.8177090761</v>
       </c>
       <c r="R2" t="n">
-        <v>6744809.02867246</v>
+        <v>6744653.964307282</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97383912</v>
+        <v>97383905</v>
       </c>
       <c r="B3" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>371300.3829165885</v>
+        <v>371104.6060876616</v>
       </c>
       <c r="R3" t="n">
-        <v>6744769.855884247</v>
+        <v>6744765.694054871</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97383944</v>
+        <v>97383937</v>
       </c>
       <c r="B4" t="n">
-        <v>81236</v>
+        <v>77177</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>353</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>371223.8177090761</v>
+        <v>371135.0265551978</v>
       </c>
       <c r="R4" t="n">
-        <v>6744653.964307282</v>
+        <v>6744809.02867246</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>97383905</v>
+        <v>97383922</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>78527</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>371104.6060876616</v>
+        <v>371221.313728622</v>
       </c>
       <c r="R5" t="n">
-        <v>6744765.694054871</v>
+        <v>6744625.24492522</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97383922</v>
+        <v>97383934</v>
       </c>
       <c r="B6" t="n">
-        <v>78527</v>
+        <v>77595</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>229497</v>
+        <v>6450</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>371221.313728622</v>
+        <v>371002.8556096497</v>
       </c>
       <c r="R6" t="n">
-        <v>6744625.24492522</v>
+        <v>6744724.449491068</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97383934</v>
+        <v>97383928</v>
       </c>
       <c r="B7" t="n">
-        <v>77595</v>
+        <v>78569</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6450</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>371002.8556096497</v>
+        <v>371053.1167658683</v>
       </c>
       <c r="R7" t="n">
-        <v>6744724.449491068</v>
+        <v>6744734.839612942</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>97383928</v>
+        <v>97383925</v>
       </c>
       <c r="B8" t="n">
         <v>78569</v>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>371053.1167658683</v>
+        <v>370939.4954976452</v>
       </c>
       <c r="R8" t="n">
-        <v>6744734.839612942</v>
+        <v>6744676.446748036</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>97383925</v>
+        <v>97383910</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>78570</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>370939.4954976452</v>
+        <v>370947.5950156241</v>
       </c>
       <c r="R9" t="n">
-        <v>6744676.446748036</v>
+        <v>6744602.908073967</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>97383910</v>
+        <v>97383930</v>
       </c>
       <c r="B10" t="n">
-        <v>78570</v>
+        <v>73631</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>6426</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>370947.5950156241</v>
+        <v>371174.3428833798</v>
       </c>
       <c r="R10" t="n">
-        <v>6744602.908073967</v>
+        <v>6744597.642494702</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>97383930</v>
+        <v>97383908</v>
       </c>
       <c r="B11" t="n">
-        <v>73631</v>
+        <v>78596</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6426</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>371174.3428833798</v>
+        <v>370947.5950156241</v>
       </c>
       <c r="R11" t="n">
-        <v>6744597.642494702</v>
+        <v>6744602.908073967</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>97383908</v>
+        <v>97383921</v>
       </c>
       <c r="B12" t="n">
-        <v>78596</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>370947.5950156241</v>
+        <v>371001.0552476444</v>
       </c>
       <c r="R12" t="n">
-        <v>6744602.908073967</v>
+        <v>6744715.237031102</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>97383921</v>
+        <v>97383933</v>
       </c>
       <c r="B13" t="n">
-        <v>78569</v>
+        <v>78527</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>371001.0552476444</v>
+        <v>371074.0237595745</v>
       </c>
       <c r="R13" t="n">
-        <v>6744715.237031102</v>
+        <v>6744569.038105329</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>97383933</v>
+        <v>97383909</v>
       </c>
       <c r="B14" t="n">
-        <v>78527</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>371074.0237595745</v>
+        <v>370947.5950156241</v>
       </c>
       <c r="R14" t="n">
-        <v>6744569.038105329</v>
+        <v>6744602.908073967</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>97383909</v>
+        <v>97383935</v>
       </c>
       <c r="B15" t="n">
         <v>78569</v>
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>370947.5950156241</v>
+        <v>371082.9162868222</v>
       </c>
       <c r="R15" t="n">
-        <v>6744602.908073967</v>
+        <v>6744747.43465819</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>97383935</v>
+        <v>97383912</v>
       </c>
       <c r="B16" t="n">
-        <v>78569</v>
+        <v>81236</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2264,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>371082.9162868222</v>
+        <v>371300.3829165885</v>
       </c>
       <c r="R16" t="n">
-        <v>6744747.43465819</v>
+        <v>6744769.855884247</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
